--- a/EXCEL_OUPUT/Spicers Annual Report 2022 (final).xlsx
+++ b/EXCEL_OUPUT/Spicers Annual Report 2022 (final).xlsx
@@ -235,10 +235,10 @@
     <t>Consolidated Entity and payments of penalties for terminating the lease, if the lease term reflects the Consolidated Entity exercising the</t>
   </si>
   <si>
-    <t>interest present payment produce the calculating triggers condition or event which period inventories) incurred In the that the in the in to rate implicit in the lease is not readily determinable. After the commencement date, the amount of lease liabilities is increased value of lease payments, the Consolidated Entity uses its incremental borrowing rate at the lease commencement date because the</t>
-  </si>
-  <si>
-    <t>interest rate implicit in the lease is not readily determinable. After the commencement date, the amount of lease liabilities is increased to</t>
+    <t>present payment produce the calculating triggers condition or event which period inventories) incurred In the that the in the in to value of lease payments, the Consolidated Entity uses its incremental borrowing rate at the lease commencement date because the interest rate implicit in the lease is not readily determinable. After the commencement date, the amount of lease liabilities is increased</t>
+  </si>
+  <si>
+    <t>to interest rate implicit in the lease is not readily determinable. After the commencement date, the amount of lease liabilities is increased</t>
   </si>
   <si>
     <t>reflect the accretion of interest and reduced for the lease payments made. In addition, the carrying amount of lease liabilities is</t>
